--- a/Outputs/From_Task_Split-half/r.summary_and_example.xlsx
+++ b/Outputs/From_Task_Split-half/r.summary_and_example.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of overall_RT:</t>
   </si>
@@ -21,7 +21,7 @@
     <t xml:space="preserve">Mean = 0.985, 95% CI[0.984, 0.987].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.993 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.993, 95% CI[0.99, 0.993].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of alerting_RT:</t>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Mean = 0.319, 95% CI[0.285, 0.352].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.483 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.483, 95% CI[0.422, 0.521].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of orienting_RT:</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Mean = 0.201, 95% CI[0.163, 0.239].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.334 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.334, 95% CI[0.263, 0.385].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of congruency_RT:</t>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Mean = 0.492, 95% CI[0.451, 0.533].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.66 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.66, 95% CI[0.589, 0.696].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of overall_ACC:</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Mean = 0.83, 95% CI[0.812, 0.848].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.907 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.907, 95% CI[0.879, 0.918].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of alerting_ACC:</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Mean = 0.333, 95% CI[0.281, 0.386].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.5 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.5, 95% CI[0.405, 0.557].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of orienting_ACC:</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Mean = 0.2, 95% CI[0.17, 0.23].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.333 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.333, 95% CI[0.276, 0.375].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of congruency_ACC:</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Mean = 0.45, 95% CI[0.409, 0.49].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.62 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.62, 95% CI[0.549, 0.658].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Hits:</t>
@@ -93,7 +93,7 @@
     <t xml:space="preserve">Mean = 0.877, 95% CI[0.867, 0.887].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.934 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.934, 95% CI[0.919, 0.94].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Hits_Slope:</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">Mean = 0.158, 95% CI[0.112, 0.204].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.273 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.273, 95% CI[0.186, 0.339].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_FA:</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">Mean = 0.749, 95% CI[0.734, 0.764].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.856 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.856, 95% CI[0.832, 0.866].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_FA_Slope:</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Mean = 0.282, 95% CI[0.222, 0.343].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.44 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.44, 95% CI[0.33, 0.511].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Ap:</t>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">Mean = 0.783, 95% CI[0.771, 0.796].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.879 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.879, 95% CI[0.858, 0.886].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Ap_Slope:</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">Mean = 0.22, 95% CI[0.179, 0.26].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.36 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.36, 95% CI[0.284, 0.413].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Bp:</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Mean = 0.768, 95% CI[0.751, 0.784].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.869 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.869, 95% CI[0.842, 0.879].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Bp_Slope:</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Mean = 0.139, 95% CI[0.068, 0.21].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.244 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.244, 95% CI[0.112, 0.347].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_RT:</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Mean = 0.928, 95% CI[0.925, 0.931].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.963 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.963, 95% CI[0.957, 0.965].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_RT_Slope:</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Mean = 0.636, 95% CI[0.605, 0.667].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.777 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.777, 95% CI[0.726, 0.8].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_SD:</t>
@@ -183,13 +183,16 @@
     <t xml:space="preserve">Mean = 0.768, 95% CI[0.754, 0.782].</t>
   </si>
   <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.869, 95% CI[0.847, 0.878].</t>
+  </si>
+  <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_SD_Slope:</t>
   </si>
   <si>
     <t xml:space="preserve">Mean = 0.378, 95% CI[0.332, 0.425].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.549 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.549, 95% CI[0.466, 0.597].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_Lapsus:</t>
@@ -198,7 +201,7 @@
     <t xml:space="preserve">Mean = 0.906, 95% CI[0.891, 0.921].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.951 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.951, 95% CI[0.927, 0.959].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_Lapsus_Slope:</t>
@@ -207,7 +210,7 @@
     <t xml:space="preserve">Mean = 0.643, 95% CI[0.615, 0.67].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.783 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.783, 95% CI[0.737, 0.803].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDz_RT:</t>
@@ -216,7 +219,7 @@
     <t xml:space="preserve">Mean = 0.119, 95% CI[0.088, 0.15].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.212 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.212, 95% CI[0.153, 0.26].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzSame_RT:</t>
@@ -225,7 +228,7 @@
     <t xml:space="preserve">Mean = -0.056, 95% CI[-0.094, -0.017].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.118 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.118, 95% CI[-0.191, -0.035].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzOpposite_RT:</t>
@@ -234,7 +237,7 @@
     <t xml:space="preserve">Mean = 0.166, 95% CI[0.111, 0.22].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.284 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.284, 95% CI[0.182, 0.36].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDz_ACC:</t>
@@ -243,7 +246,7 @@
     <t xml:space="preserve">Mean = 0.011, 95% CI[-0.028, 0.049].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.021 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.021, 95% CI[-0.052, 0.093].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzSame_ACC:</t>
@@ -252,7 +255,7 @@
     <t xml:space="preserve">Mean = 0.015, 95% CI[-0.028, 0.059].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.03 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.03, 95% CI[-0.053, 0.111].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzOpposite_ACC:</t>
@@ -261,7 +264,7 @@
     <t xml:space="preserve">Mean = -0.009, 95% CI[-0.049, 0.031].</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.018 (CIs in a large sample of iterations does not virtually vary).</t>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.018, 95% CI[-0.095, 0.061].</t>
   </si>
   <si>
     <t xml:space="preserve">Report example: We estimated the internal consistency of the IDzOpposite_ACC index using a permutation-based split-half approach with 10,000 random splits (for a rationale, see Parsons et al., 2019; see Luna et al., 2020, and Roca et al., 2018, for previous applications of the technique). The Spearman-Brown corrected splithalf reliability was -0.02.</t>
@@ -610,7 +613,7 @@
   <cols>
     <col min="1" max="1" width="60.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="38.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="113.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="75.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -819,106 +822,106 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -940,27 +943,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/From_Task_Split-half/r.summary_and_example.xlsx
+++ b/Outputs/From_Task_Split-half/r.summary_and_example.xlsx
@@ -13,261 +13,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of overall_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.985, 95% CI[0.984, 0.987].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.993, 95% CI[0.99, 0.993].</t>
+    <t xml:space="preserve">Mean = 0.985, 95% CI[0.985, 0.985].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.992, 95% CI[0.992, 0.992].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of alerting_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.319, 95% CI[0.285, 0.352].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.483, 95% CI[0.422, 0.521].</t>
+    <t xml:space="preserve">Mean = 0.311, 95% CI[0.309, 0.312].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.474, 95% CI[0.472, 0.476].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of orienting_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.201, 95% CI[0.163, 0.239].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.334, 95% CI[0.263, 0.385].</t>
+    <t xml:space="preserve">Mean = 0.217, 95% CI[0.216, 0.219].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.357, 95% CI[0.354, 0.359].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of congruency_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.492, 95% CI[0.451, 0.533].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.66, 95% CI[0.589, 0.696].</t>
+    <t xml:space="preserve">Mean = 0.489, 95% CI[0.487, 0.49].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.656, 95% CI[0.654, 0.658].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of overall_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.83, 95% CI[0.812, 0.848].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.907, 95% CI[0.879, 0.918].</t>
+    <t xml:space="preserve">Mean = 0.829, 95% CI[0.828, 0.829].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.906, 95% CI[0.906, 0.907].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of alerting_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.333, 95% CI[0.281, 0.386].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.5, 95% CI[0.405, 0.557].</t>
+    <t xml:space="preserve">Mean = 0.34, 95% CI[0.339, 0.342].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.508, 95% CI[0.505, 0.509].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of orienting_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.2, 95% CI[0.17, 0.23].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.333, 95% CI[0.276, 0.375].</t>
+    <t xml:space="preserve">Mean = 0.149, 95% CI[0.148, 0.151].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.26, 95% CI[0.257, 0.262].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of congruency_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.45, 95% CI[0.409, 0.49].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.62, 95% CI[0.549, 0.658].</t>
+    <t xml:space="preserve">Mean = 0.428, 95% CI[0.427, 0.429].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.599, 95% CI[0.597, 0.601].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Hits:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.877, 95% CI[0.867, 0.887].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.934, 95% CI[0.919, 0.94].</t>
+    <t xml:space="preserve">Mean = 0.881, 95% CI[0.88, 0.881].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.937, 95% CI[0.936, 0.937].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Hits_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.158, 95% CI[0.112, 0.204].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.273, 95% CI[0.186, 0.339].</t>
+    <t xml:space="preserve">Mean = 0.158, 95% CI[0.157, 0.16].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.274, 95% CI[0.271, 0.275].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_FA:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.749, 95% CI[0.734, 0.764].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.856, 95% CI[0.832, 0.866].</t>
+    <t xml:space="preserve">Mean = 0.739, 95% CI[0.738, 0.74].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.85, 95% CI[0.849, 0.85].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_FA_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.282, 95% CI[0.222, 0.343].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.44, 95% CI[0.33, 0.511].</t>
+    <t xml:space="preserve">Mean = 0.253, 95% CI[0.252, 0.255].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.404, 95% CI[0.401, 0.406].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Ap:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.783, 95% CI[0.771, 0.796].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.879, 95% CI[0.858, 0.886].</t>
+    <t xml:space="preserve">Mean = 0.781, 95% CI[0.781, 0.782].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.877, 95% CI[0.876, 0.878].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Ap_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.22, 95% CI[0.179, 0.26].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.36, 95% CI[0.284, 0.413].</t>
+    <t xml:space="preserve">Mean = 0.248, 95% CI[0.246, 0.249].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.397, 95% CI[0.394, 0.399].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Bp:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.768, 95% CI[0.751, 0.784].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.869, 95% CI[0.842, 0.879].</t>
+    <t xml:space="preserve">Mean = 0.748, 95% CI[0.747, 0.749].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.856, 95% CI[0.855, 0.856].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of EV_Bp_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.139, 95% CI[0.068, 0.21].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.244, 95% CI[0.112, 0.347].</t>
+    <t xml:space="preserve">Mean = 0.148, 95% CI[0.146, 0.15].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.258, 95% CI[0.255, 0.26].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.928, 95% CI[0.925, 0.931].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.963, 95% CI[0.957, 0.965].</t>
+    <t xml:space="preserve">Mean = 0.934, 95% CI[0.934, 0.934].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.966, 95% CI[0.966, 0.966].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_RT_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.636, 95% CI[0.605, 0.667].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.777, 95% CI[0.726, 0.8].</t>
+    <t xml:space="preserve">Mean = 0.604, 95% CI[0.603, 0.605].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.753, 95% CI[0.751, 0.754].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_SD:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.768, 95% CI[0.754, 0.782].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.869, 95% CI[0.847, 0.878].</t>
-  </si>
-  <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_SD_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.378, 95% CI[0.332, 0.425].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.549, 95% CI[0.466, 0.597].</t>
+    <t xml:space="preserve">Mean = 0.366, 95% CI[0.364, 0.368].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.536, 95% CI[0.533, 0.538].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_Lapsus:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.906, 95% CI[0.891, 0.921].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.951, 95% CI[0.927, 0.959].</t>
+    <t xml:space="preserve">Mean = 0.916, 95% CI[0.916, 0.917].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.956, 95% CI[0.956, 0.957].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of AV_Lapsus_Slope:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.643, 95% CI[0.615, 0.67].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.783, 95% CI[0.737, 0.803].</t>
+    <t xml:space="preserve">Mean = 0.642, 95% CI[0.641, 0.643].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.782, 95% CI[0.78, 0.783].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDz_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.119, 95% CI[0.088, 0.15].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.212, 95% CI[0.153, 0.26].</t>
+    <t xml:space="preserve">Mean = 0.115, 95% CI[0.113, 0.116].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.206, 95% CI[0.203, 0.208].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzSame_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = -0.056, 95% CI[-0.094, -0.017].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.118, 95% CI[-0.191, -0.035].</t>
+    <t xml:space="preserve">Mean = -0.038, 95% CI[-0.039, -0.036].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.078, 95% CI[-0.081, -0.075].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzOpposite_RT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.166, 95% CI[0.111, 0.22].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.284, 95% CI[0.182, 0.36].</t>
+    <t xml:space="preserve">Mean = 0.151, 95% CI[0.15, 0.153].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.263, 95% CI[0.26, 0.265].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDz_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.011, 95% CI[-0.028, 0.049].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.021, 95% CI[-0.052, 0.093].</t>
+    <t xml:space="preserve">Mean = 0.016, 95% CI[0.014, 0.017].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.031, 95% CI[0.028, 0.034].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzSame_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = 0.015, 95% CI[-0.028, 0.059].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.03, 95% CI[-0.053, 0.111].</t>
+    <t xml:space="preserve">Mean = 0.019, 95% CI[0.018, 0.021].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = 0.038, 95% CI[0.035, 0.041].</t>
   </si>
   <si>
     <t xml:space="preserve">Permutation-based split-half reliability of IDzOpposite_ACC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean = -0.009, 95% CI[-0.049, 0.031].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.018, 95% CI[-0.095, 0.061].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report example: We estimated the internal consistency of the IDzOpposite_ACC index using a permutation-based split-half approach with 10,000 random splits (for a rationale, see Parsons et al., 2019; see Luna et al., 2020, and Roca et al., 2018, for previous applications of the technique). The Spearman-Brown corrected splithalf reliability was -0.02.</t>
+    <t xml:space="preserve">Mean = -0.013, 95% CI[-0.014, -0.011].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean with Spearman-Brown correction (rSB) = -0.025, 95% CI[-0.028, -0.022].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report example: We estimated the internal consistency of the IDzOpposite_ACC index using a permutation-based split-half approach with 10,000 random splits (for a rationale, see Parsons et al., 2019; see Luna et al., 2020, and Roca et al., 2018, for previous applications of the technique). The Spearman-Brown corrected splithalf reliability was -0.03.</t>
   </si>
   <si>
     <t xml:space="preserve">References:</t>
@@ -609,7 +603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="60.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="38.71" hidden="0" customWidth="1"/>
@@ -819,109 +813,109 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -936,34 +930,34 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
